--- a/data/trans_camb/P5_4-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_4-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 20,69</t>
+          <t>-23,41; 25,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 18,97</t>
+          <t>-15,55; 20,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 16,04</t>
+          <t>-14,29; 16,1</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 59,95</t>
+          <t>-50,48; 101,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 65,73</t>
+          <t>-47,42; 120,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 47,65</t>
+          <t>-37,0; 71,2</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-0,37</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 15,95</t>
+          <t>-22,01; 21,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 13,97</t>
+          <t>-17,7; 18,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 9,16</t>
+          <t>-14,23; 13,95</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,41%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,93%</t>
+          <t>-4,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>-1,29%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,17; 66,37</t>
+          <t>-62,82; 143,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 48,62</t>
+          <t>-40,64; 76,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 31,26</t>
+          <t>-41,2; 59,94</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>0,59</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 24,01</t>
+          <t>-13,53; 20,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 12,99</t>
+          <t>-13,82; 12,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 14,35</t>
+          <t>-10,42; 11,83</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 84,29</t>
+          <t>-29,69; 71,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 38,35</t>
+          <t>-32,46; 40,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 47,27</t>
+          <t>-23,73; 35,34</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,08</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 11,29</t>
+          <t>-18,5; 11,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 9,24</t>
+          <t>-14,91; 13,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 6,56</t>
+          <t>-10,98; 8,79</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,73%</t>
+          <t>-4,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,83%</t>
+          <t>-2,31%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 26,67</t>
+          <t>-32,26; 29,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 24,5</t>
+          <t>-28,92; 35,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 15,82</t>
+          <t>-21,55; 21,49</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,56</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 12,0</t>
+          <t>-20,71; 15,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 11,11</t>
+          <t>-21,16; 16,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 8,16</t>
+          <t>-14,69; 11,08</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-3,57%</t>
+          <t>-4,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>-3,98%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 34,71</t>
+          <t>-39,98; 44,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 42,93</t>
+          <t>-45,91; 68,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 25,13</t>
+          <t>-32,02; 34,03</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,11</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 18,18</t>
+          <t>-16,74; 26,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 16,17</t>
+          <t>-20,76; 20,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 13,7</t>
+          <t>-12,46; 18,0</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 48,23</t>
+          <t>-31,29; 80,57</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 56,76</t>
+          <t>-37,73; 61,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 38,34</t>
+          <t>-23,99; 50,98</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 8,39</t>
+          <t>-8,16; 9,08</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,45</t>
+          <t>-7,08; 6,26</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,87</t>
+          <t>-5,07; 5,49</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>-0,24%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 21,6</t>
+          <t>-18,5; 26,22</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 15,84</t>
+          <t>-16,9; 18,26</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 12,67</t>
+          <t>-12,34; 15,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_4-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_4-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.01605932479815664</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.4278246354978865</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2408636809810016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-23,41; 25,82</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-15,55; 20,65</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,29; 16,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-25.07841763851006</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-16.82233229478038</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-14.97392663260058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,44%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>24.67853416463592</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.37352260098963</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>14.43855912074051</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-50,48; 101,51</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-47,42; 120,99</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-37,0; 71,2</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.0004449126338471771</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.01611908183353532</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.007876296027372751</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.528887095938312</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.4953954684906014</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3967319142491888</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-22,01; 21,09</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,7; 18,02</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-14,23; 13,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.9763337391343484</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.169286848842972</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.6607923097380993</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,35%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,29%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.834703479938621</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.4928462217846541</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.9704639671324566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-62,82; 143,35</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-40,64; 76,13</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-41,2; 59,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-23.38871731834316</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.26252744614456</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-14.71409162183152</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,7</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.75557121615062</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.06479502653086</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.84320035920735</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,53; 20,62</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-13,82; 12,6</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,42; 11,83</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.07819335178684537</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.01431464584606345</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.03360901468548697</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,53%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-3,42%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,51%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.6649142171451291</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.3835246811962437</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.4297826437314007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-29,69; 71,71</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-32,46; 40,23</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-23,73; 35,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.122826467602237</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.8844595515931085</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.5827375880215537</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>5.748904936434728</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.02265453437975684</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.218866444199135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-18,5; 11,82</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-14,91; 13,02</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-10,98; 8,79</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.89497862757508</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-12.78036610404271</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-8.798926986195978</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-4,08%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,65%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-2,31%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>24.01451248378361</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>14.22255905096094</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>13.56973528473867</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-32,26; 29,43</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-28,92; 35,01</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-21,55; 21,49</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.1479902803171202</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.0005854271385566187</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.05725206764456682</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2640448521420479</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2932957607143235</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2069081335348959</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-20,71; 15,84</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-21,16; 16,72</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-14,69; 11,08</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.8181348247908474</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.4422463769921401</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.4008938099697513</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-4,89%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-2,63%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-3,98%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.988383650912262</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5973105934272194</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.6011731123532982</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-39,98; 44,69</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-45,91; 68,98</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-32,02; 34,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-17.84498094813074</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-14.18389109154793</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-10.39437839462212</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>12.68516146926137</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>14.59412599977851</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>9.614274186397942</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-16,74; 26,83</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-20,76; 20,94</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-12,46; 18,0</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.04060802808665433</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.01334061161761648</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.01287161549586797</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>10,95%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-0,3%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.3198586067829812</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2720891307838487</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2072537040057318</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-31,29; 80,57</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-37,73; 61,27</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-23,99; 50,98</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.313568157739182</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.3824917655743907</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.2293545133503836</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-3.087423982700022</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-0.7606136606427838</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-2.080883437532793</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-8,16; 9,08</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-7,08; 6,26</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 5,49</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-21.73200673281455</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-21.14437317764525</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-15.52167967530337</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-1,52%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-0,24%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>14.75801758411107</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>16.74345402047996</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>10.31795425723664</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-18,5; 26,22</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-16,9; 18,26</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-12,34; 15,27</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.07337305205760289</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.02153997448740471</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.05309812964013771</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.4203680338848514</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.454596128681497</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.3350793785448861</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.4158930428924664</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.6856161463857754</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.3250388169470994</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>5.105626444338862</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-0.04198962983753551</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>2.368676462576247</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-17.15693978244959</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-20.54702749225283</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-12.74694288671785</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>27.3971665640257</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>21.74649832696204</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>18.88398849870213</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.1130359509312689</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.0009362307031173636</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.05264267995441958</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.3235553675918663</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.3714262252178757</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.2429669847528564</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.8640925382104895</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.634321586410922</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.5280787021381441</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.02118777185836085</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.05582881396052342</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.04232168967025496</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-8.298807475591998</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-6.501982697954569</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-4.897523625659966</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>8.865587173289395</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>6.950887427045055</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>5.696105978784487</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.0005393229637563116</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.001465725388542204</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.001095107483185713</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.1928735474156583</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1572155343231872</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.1191783966460686</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.2474598447092087</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.2038706982600126</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.1591151540550685</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
